--- a/results/20250402/evaluation_GpositivePseAAC_noisy_0.1.xlsx
+++ b/results/20250402/evaluation_GpositivePseAAC_noisy_0.1.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.27596</v>
+        <v>0.74326</v>
       </c>
       <c r="I26" t="n">
-        <v>0.06471</v>
+        <v>0.02266</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.13952</v>
+        <v>0.49204</v>
       </c>
       <c r="I27" t="n">
-        <v>0.05028</v>
+        <v>0.05956</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.27455</v>
+        <v>0.74416</v>
       </c>
       <c r="I28" t="n">
-        <v>0.06331000000000001</v>
+        <v>0.02283</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.13297</v>
+        <v>0.49588</v>
       </c>
       <c r="I29" t="n">
-        <v>0.04715</v>
+        <v>0.0601</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.27801</v>
+        <v>0.74307</v>
       </c>
       <c r="I30" t="n">
-        <v>0.06387</v>
+        <v>0.02306</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.14068</v>
+        <v>0.48934</v>
       </c>
       <c r="I31" t="n">
-        <v>0.04799</v>
+        <v>0.06162</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.27411</v>
+        <v>0.74468</v>
       </c>
       <c r="I32" t="n">
-        <v>0.06282</v>
+        <v>0.02333</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.13259</v>
+        <v>0.49588</v>
       </c>
       <c r="I33" t="n">
-        <v>0.04686</v>
+        <v>0.0609</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.38112</v>
+        <v>0.72419</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0757</v>
+        <v>0.02342</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.22083</v>
+        <v>0.38992</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06838</v>
+        <v>0.06596</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.38035</v>
+        <v>0.72471</v>
       </c>
       <c r="I36" t="n">
-        <v>0.07617</v>
+        <v>0.02328</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.22044</v>
+        <v>0.393</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0692</v>
+        <v>0.06646000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.38138</v>
+        <v>0.724</v>
       </c>
       <c r="I38" t="n">
-        <v>0.07573000000000001</v>
+        <v>0.02339</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.22083</v>
+        <v>0.38992</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0688</v>
+        <v>0.06596</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.38073</v>
+        <v>0.72458</v>
       </c>
       <c r="I40" t="n">
-        <v>0.07602</v>
+        <v>0.02325</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.22082</v>
+        <v>0.393</v>
       </c>
       <c r="I41" t="n">
-        <v>0.06954</v>
+        <v>0.06646000000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.28168</v>
+        <v>0.7212</v>
       </c>
       <c r="I66" t="n">
-        <v>0.04533</v>
+        <v>0.02794</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.138</v>
+        <v>0.42037</v>
       </c>
       <c r="I67" t="n">
-        <v>0.03578</v>
+        <v>0.05307</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.26329</v>
+        <v>0.7309099999999999</v>
       </c>
       <c r="I68" t="n">
-        <v>0.04524</v>
+        <v>0.02772</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.13065</v>
+        <v>0.47586</v>
       </c>
       <c r="I69" t="n">
-        <v>0.03631</v>
+        <v>0.05948</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.28271</v>
+        <v>0.72088</v>
       </c>
       <c r="I70" t="n">
-        <v>0.04624</v>
+        <v>0.02801</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.13954</v>
+        <v>0.41959</v>
       </c>
       <c r="I71" t="n">
-        <v>0.03336</v>
+        <v>0.05376</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.26207</v>
+        <v>0.73117</v>
       </c>
       <c r="I72" t="n">
-        <v>0.04455</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.13258</v>
+        <v>0.48087</v>
       </c>
       <c r="I73" t="n">
-        <v>0.03727</v>
+        <v>0.05803</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.3479</v>
+        <v>0.70939</v>
       </c>
       <c r="I74" t="n">
-        <v>0.04826</v>
+        <v>0.02667</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.18463</v>
+        <v>0.35948</v>
       </c>
       <c r="I75" t="n">
-        <v>0.0357</v>
+        <v>0.04855</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.33472</v>
+        <v>0.71517</v>
       </c>
       <c r="I76" t="n">
-        <v>0.051</v>
+        <v>0.02772</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.17499</v>
+        <v>0.39299</v>
       </c>
       <c r="I77" t="n">
-        <v>0.03605</v>
+        <v>0.05445</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.34777</v>
+        <v>0.70952</v>
       </c>
       <c r="I78" t="n">
-        <v>0.04931</v>
+        <v>0.02636</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.18425</v>
+        <v>0.35948</v>
       </c>
       <c r="I79" t="n">
-        <v>0.03608</v>
+        <v>0.04855</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.33363</v>
+        <v>0.71569</v>
       </c>
       <c r="I80" t="n">
-        <v>0.05053</v>
+        <v>0.02717</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.17499</v>
+        <v>0.39415</v>
       </c>
       <c r="I81" t="n">
-        <v>0.03574</v>
+        <v>0.05424</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.2856</v>
+        <v>0.7401</v>
       </c>
       <c r="I106" t="n">
-        <v>0.05673</v>
+        <v>0.01886</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.1349</v>
+        <v>0.47475</v>
       </c>
       <c r="I107" t="n">
-        <v>0.04339</v>
+        <v>0.05502</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.28122</v>
+        <v>0.74266</v>
       </c>
       <c r="I108" t="n">
-        <v>0.05877</v>
+        <v>0.02103</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.12641</v>
+        <v>0.48477</v>
       </c>
       <c r="I109" t="n">
-        <v>0.04108</v>
+        <v>0.05843</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.28848</v>
+        <v>0.73991</v>
       </c>
       <c r="I110" t="n">
-        <v>0.05848</v>
+        <v>0.01962</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.13721</v>
+        <v>0.47514</v>
       </c>
       <c r="I111" t="n">
-        <v>0.04263</v>
+        <v>0.05629</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.28308</v>
+        <v>0.74234</v>
       </c>
       <c r="I112" t="n">
-        <v>0.05944</v>
+        <v>0.02082</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.12872</v>
+        <v>0.48438</v>
       </c>
       <c r="I113" t="n">
-        <v>0.04234</v>
+        <v>0.06027</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.41213</v>
+        <v>0.71956</v>
       </c>
       <c r="I114" t="n">
-        <v>0.06691</v>
+        <v>0.01894</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.24087</v>
+        <v>0.35799</v>
       </c>
       <c r="I115" t="n">
-        <v>0.05417</v>
+        <v>0.06148</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.41161</v>
+        <v>0.71943</v>
       </c>
       <c r="I116" t="n">
-        <v>0.06675</v>
+        <v>0.01934</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.23972</v>
+        <v>0.36069</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0544</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.41258</v>
+        <v>0.71962</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0668</v>
+        <v>0.01893</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.24126</v>
+        <v>0.35799</v>
       </c>
       <c r="I119" t="n">
-        <v>0.05464</v>
+        <v>0.06148</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.41226</v>
+        <v>0.71962</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0664</v>
+        <v>0.0194</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.24087</v>
+        <v>0.36069</v>
       </c>
       <c r="I121" t="n">
-        <v>0.05419</v>
+        <v>0.0614</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.25947</v>
+        <v>0.73774</v>
       </c>
       <c r="I146" t="n">
-        <v>0.05314</v>
+        <v>0.02739</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.12527</v>
+        <v>0.46469</v>
       </c>
       <c r="I147" t="n">
-        <v>0.04933</v>
+        <v>0.06397</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.24449</v>
+        <v>0.74418</v>
       </c>
       <c r="I148" t="n">
-        <v>0.05228</v>
+        <v>0.02759</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.11562</v>
+        <v>0.50479</v>
       </c>
       <c r="I149" t="n">
-        <v>0.04683</v>
+        <v>0.06582</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.25992</v>
+        <v>0.73793</v>
       </c>
       <c r="I150" t="n">
-        <v>0.05234</v>
+        <v>0.02756</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.12643</v>
+        <v>0.46469</v>
       </c>
       <c r="I151" t="n">
-        <v>0.04823</v>
+        <v>0.06397</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.24359</v>
+        <v>0.7474499999999999</v>
       </c>
       <c r="I152" t="n">
-        <v>0.05065</v>
+        <v>0.02656</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.11678</v>
+        <v>0.51019</v>
       </c>
       <c r="I153" t="n">
-        <v>0.04637</v>
+        <v>0.06537999999999999</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.32761</v>
+        <v>0.72104</v>
       </c>
       <c r="I154" t="n">
-        <v>0.04804</v>
+        <v>0.02549</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.1619</v>
+        <v>0.38228</v>
       </c>
       <c r="I155" t="n">
-        <v>0.03755</v>
+        <v>0.05566</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.32041</v>
+        <v>0.72412</v>
       </c>
       <c r="I156" t="n">
-        <v>0.04567</v>
+        <v>0.02616</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.1565</v>
+        <v>0.4027</v>
       </c>
       <c r="I157" t="n">
-        <v>0.03799</v>
+        <v>0.05478</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.3278</v>
+        <v>0.72168</v>
       </c>
       <c r="I158" t="n">
-        <v>0.04752</v>
+        <v>0.02515</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.16229</v>
+        <v>0.38189</v>
       </c>
       <c r="I159" t="n">
-        <v>0.0379</v>
+        <v>0.05528</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.31893</v>
+        <v>0.72502</v>
       </c>
       <c r="I160" t="n">
-        <v>0.04482</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.15611</v>
+        <v>0.40462</v>
       </c>
       <c r="I161" t="n">
-        <v>0.03873</v>
+        <v>0.05393</v>
       </c>
     </row>
   </sheetData>
